--- a/literature/literature_list.xlsx
+++ b/literature/literature_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janisklug/Documents/HU_Berlin/Applied_Geoinformation_Science/Project_Work/urban_sustainability_exam/literature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D3E5172-098F-4E4D-9366-94B739909445}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CAF5FC-3BEC-F948-96E2-E6D02D0F8795}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16840" xr2:uid="{F3FB9AC1-4FAB-DA41-A5AB-6E55498FB3E0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <r>
       <t>Lake, I. R., Jones, N. R., Agnew, M., Goodess, C. M., Giorgi, F., Hamaoui-Laguel, L., ... &amp; Epstein, M. M. (2017). Climate change and future pollen allergy in Europe. </t>
@@ -69,13 +69,30 @@
       <t>(3), 385-391.</t>
     </r>
   </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Citation</t>
+  </si>
+  <si>
+    <t>increase of allergies expected</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -116,8 +133,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -433,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97AEA4-4EE3-8A44-8C87-9A5790DE7834}">
-  <dimension ref="B7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -445,7 +463,18 @@
     <col min="2" max="2" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>

--- a/literature/literature_list.xlsx
+++ b/literature/literature_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janisklug/Documents/HU_Berlin/Applied_Geoinformation_Science/Project_Work/urban_sustainability_exam/literature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CAF5FC-3BEC-F948-96E2-E6D02D0F8795}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B827C6C-B27F-AC44-AAA1-DA8AD4EEBA13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16840" xr2:uid="{F3FB9AC1-4FAB-DA41-A5AB-6E55498FB3E0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <r>
       <t>Lake, I. R., Jones, N. R., Agnew, M., Goodess, C. M., Giorgi, F., Hamaoui-Laguel, L., ... &amp; Epstein, M. M. (2017). Climate change and future pollen allergy in Europe. </t>
@@ -73,17 +73,23 @@
     <t>Topic</t>
   </si>
   <si>
-    <t>Citation</t>
+    <t>increase of allergies expected</t>
   </si>
   <si>
-    <t>increase of allergies expected</t>
+    <t>https://doi.org/10.1289/EHP173</t>
+  </si>
+  <si>
+    <t>doi for quick access</t>
+  </si>
+  <si>
+    <t>Citation (doi to be appended)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,6 +118,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -130,15 +144,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -451,35 +468,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97AEA4-4EE3-8A44-8C87-9A5790DE7834}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{B9663AFB-2044-554D-9596-9BB4C51A1574}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/literature/literature_list.xlsx
+++ b/literature/literature_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janisklug/Documents/HU_Berlin/Applied_Geoinformation_Science/Project_Work/urban_sustainability_exam/literature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B827C6C-B27F-AC44-AAA1-DA8AD4EEBA13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BABA09-80D6-DC49-8087-E88CD1A3D582}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16840" xr2:uid="{F3FB9AC1-4FAB-DA41-A5AB-6E55498FB3E0}"/>
+    <workbookView xWindow="560" yWindow="6840" windowWidth="28240" windowHeight="16840" xr2:uid="{F3FB9AC1-4FAB-DA41-A5AB-6E55498FB3E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <r>
       <t>Lake, I. R., Jones, N. R., Agnew, M., Goodess, C. M., Giorgi, F., Hamaoui-Laguel, L., ... &amp; Epstein, M. M. (2017). Climate change and future pollen allergy in Europe. </t>
@@ -73,9 +73,6 @@
     <t>Topic</t>
   </si>
   <si>
-    <t>increase of allergies expected</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1289/EHP173</t>
   </si>
   <si>
@@ -83,6 +80,148 @@
   </si>
   <si>
     <t>Citation (doi to be appended)</t>
+  </si>
+  <si>
+    <r>
+      <t>Bartková-Ščevková, J. (2003). The influence of temperature, relative humidity and rainfall on the occurrence of pollen allergens (Betula, Poaceae, Ambrosia artemisiifolia) in the atmosphere of Bratislava (Slovakia). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>International Journal of Biometeorology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 1-5.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00484-003-0166-2</t>
+  </si>
+  <si>
+    <t>Covar R (2018). "Allergic Disorders". Current Diagnosis &amp; Treatment: Pediatrics(24th ed.). NY: McGraw-Hill. ISBN 978-1-259-86290-8.</t>
+  </si>
+  <si>
+    <t>isbn</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trend -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> increase of allergies expected</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Seasonal allergic rhinitis (hay fever</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>): Caused by seasonal peaks in the airborne load of pollens.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meteorological factors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> important for spread - especially air temperature and relative air humidity (not rain!)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -468,16 +607,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97AEA4-4EE3-8A44-8C87-9A5790DE7834}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="1" max="1" width="92.33203125" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
@@ -486,21 +625,43 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/literature/literature_list.xlsx
+++ b/literature/literature_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janisklug/Documents/HU_Berlin/Applied_Geoinformation_Science/Project_Work/urban_sustainability_exam/literature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BABA09-80D6-DC49-8087-E88CD1A3D582}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E890FBE7-8787-4A4E-93E4-C5EA10D6F41B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="6840" windowWidth="28240" windowHeight="16840" xr2:uid="{F3FB9AC1-4FAB-DA41-A5AB-6E55498FB3E0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <r>
       <t>Lake, I. R., Jones, N. R., Agnew, M., Goodess, C. M., Giorgi, F., Hamaoui-Laguel, L., ... &amp; Epstein, M. M. (2017). Climate change and future pollen allergy in Europe. </t>
@@ -143,7 +143,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>trend -</t>
+      <t>meteorological factors</t>
     </r>
     <r>
       <rPr>
@@ -153,7 +153,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> increase of allergies expected</t>
+      <t xml:space="preserve"> important for spread - especially air temperature and relative air humidity (not rain!)</t>
     </r>
   </si>
   <si>
@@ -166,7 +166,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>What:</t>
+      <t>Seasonal allergic rhinitis (hay fever</t>
     </r>
     <r>
       <rPr>
@@ -176,52 +176,50 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Seasonal allergic rhinitis (hay fever</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>): Caused by seasonal peaks in the airborne load of pollens.</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>meteorological factors</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> important for spread - especially air temperature and relative air humidity (not rain!)</t>
-    </r>
+    <t xml:space="preserve">What: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> increase of allergies expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trend </t>
+  </si>
+  <si>
+    <t>flight distance / exposure</t>
+  </si>
+  <si>
+    <t>cross allergies</t>
+  </si>
+  <si>
+    <t>Czaja-Bulsa, G., &amp; Bachorska, J. (1998). Food allergy in children with pollinosis in the Western sea coast region. Polski Merkuriusz Lekarski: Organ Polskiego Towarzystwa Lekarskiego, 5(30), 338-340.</t>
+  </si>
+  <si>
+    <t>birch pollen and food allergies</t>
+  </si>
+  <si>
+    <t>Yamamoto, T., Asakura, K., Shirasaki, H., Himi, T., Ogasawara, H., Narita, S. I., &amp; Kataura, A. (2005). Relationship between pollen allergy and oral allergy syndrome. Nippon Jibiinkoka Gakkai Kaiho, 108(10), 971-979.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3950%2Fjibiinkoka.108.971</t>
+  </si>
+  <si>
+    <t>pollen allergy and oral allergy</t>
+  </si>
+  <si>
+    <t>Malandain, H. (2003). Allergies associated with both food and pollen. European Annals of Allergy and Clinical Immunology, 35(7), 253-256.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index </t>
+  </si>
+  <si>
+    <t>traffic emissions</t>
+  </si>
+  <si>
+    <t>disease according ICD10</t>
   </si>
 </sst>
 </file>
@@ -607,66 +605,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97AEA4-4EE3-8A44-8C87-9A5790DE7834}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="92.33203125" customWidth="1"/>
-    <col min="2" max="2" width="40.5" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="92.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.5" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{B9663AFB-2044-554D-9596-9BB4C51A1574}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{B9663AFB-2044-554D-9596-9BB4C51A1574}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/literature/literature_list.xlsx
+++ b/literature/literature_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janisklug/Documents/HU_Berlin/Applied_Geoinformation_Science/Project_Work/urban_sustainability_exam/literature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E890FBE7-8787-4A4E-93E4-C5EA10D6F41B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EE5730-53CA-094E-AE6B-3B2CAC5E2AFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="6840" windowWidth="28240" windowHeight="16840" xr2:uid="{F3FB9AC1-4FAB-DA41-A5AB-6E55498FB3E0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <r>
       <t>Lake, I. R., Jones, N. R., Agnew, M., Goodess, C. M., Giorgi, F., Hamaoui-Laguel, L., ... &amp; Epstein, M. M. (2017). Climate change and future pollen allergy in Europe. </t>
@@ -180,9 +180,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">What: </t>
-  </si>
-  <si>
     <t xml:space="preserve"> increase of allergies expected</t>
   </si>
   <si>
@@ -219,14 +216,95 @@
     <t>traffic emissions</t>
   </si>
   <si>
-    <t>disease according ICD10</t>
+    <r>
+      <t>Cahill K (2018). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Urticaria, Angioedema, and Allergic Rhinitis." 'Harrison's Principles of Internal Medicine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (20th ed.). NY: McGraw-Hill. pp. Chapter 345. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISBN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>978-1-259-64403-0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>(lifestyle e.g. smoking) and traffic emissions increase risk for allergic reactions</t>
+  </si>
+  <si>
+    <t>general sources for</t>
+  </si>
+  <si>
+    <t>allergenicity of certain tree pollen</t>
+  </si>
+  <si>
+    <t>non-scientific but pharma industry ?</t>
+  </si>
+  <si>
+    <t>www.pollenlibrary.com</t>
+  </si>
+  <si>
+    <t>https://icd.who.int/browse10/2010/en#/J30.1</t>
+  </si>
+  <si>
+    <t>internationally classified disease according ICD10 j30.1</t>
+  </si>
+  <si>
+    <t>What</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -263,6 +341,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF0B0080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -285,11 +390,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -605,15 +712,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97AEA4-4EE3-8A44-8C87-9A5790DE7834}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
     <col min="2" max="2" width="92.33203125" customWidth="1"/>
     <col min="3" max="3" width="40.5" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
@@ -631,8 +738,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
+      <c r="A3" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -645,16 +752,19 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>24</v>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
+      <c r="A7" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
@@ -665,7 +775,7 @@
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -679,47 +789,79 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{B9663AFB-2044-554D-9596-9BB4C51A1574}"/>
+    <hyperlink ref="C14" r:id="rId2" xr:uid="{C1B3CABA-FA0A-494B-B349-215554AE9119}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/literature/literature_list.xlsx
+++ b/literature/literature_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janisklug/Documents/HU_Berlin/Applied_Geoinformation_Science/Project_Work/urban_sustainability_exam/literature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EE5730-53CA-094E-AE6B-3B2CAC5E2AFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E94E97-E4C2-0749-9D36-E8BD2AE50612}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="6840" windowWidth="28240" windowHeight="16840" xr2:uid="{F3FB9AC1-4FAB-DA41-A5AB-6E55498FB3E0}"/>
+    <workbookView xWindow="560" yWindow="1160" windowWidth="28240" windowHeight="16840" xr2:uid="{F3FB9AC1-4FAB-DA41-A5AB-6E55498FB3E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <r>
       <t>Lake, I. R., Jones, N. R., Agnew, M., Goodess, C. M., Giorgi, F., Hamaoui-Laguel, L., ... &amp; Epstein, M. M. (2017). Climate change and future pollen allergy in Europe. </t>
@@ -298,13 +298,92 @@
   </si>
   <si>
     <t>What</t>
+  </si>
+  <si>
+    <t>1. Introduction</t>
+  </si>
+  <si>
+    <t>2. Methods</t>
+  </si>
+  <si>
+    <t>4. Discussion</t>
+  </si>
+  <si>
+    <r>
+      <t>Cariñanos, P., &amp; Casares-Porcel, M. (2011). Urban green zones and related pollen allergy: A review. Some guidelines for designing spaces with low allergy impact. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Landscape and urban planning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3), 205-214.</t>
+    </r>
+  </si>
+  <si>
+    <t>(short) qualitative part</t>
+  </si>
+  <si>
+    <t>limitations, what the index is not intended to:</t>
+  </si>
+  <si>
+    <t>???? pollen allergenicity and biodiversity</t>
+  </si>
+  <si>
+    <t>low biodiversity may also foster allergies -&gt; index shall not serve to plant only one kind of tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autochthonus trees to be preferred, but the planting of exotics prompts new allergies. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.landurbplan.2011.03.006</t>
+  </si>
+  <si>
+    <t>D’Amato, G., Cecchi, L., Bonini, S., Nunes, C., Annesi‐Maesano, I., Behrendt, H., ... &amp; Van Cauwenberge, P. (2007). Allergenic pollen and pollen allergy in Europe. Allergy, 62(9), 976-990.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/j.1398-9995.2007.01393.x</t>
+  </si>
+  <si>
+    <t>several information on pollen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -368,6 +447,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -390,13 +478,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -712,17 +801,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97AEA4-4EE3-8A44-8C87-9A5790DE7834}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
     <col min="2" max="2" width="92.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.5" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
@@ -737,131 +826,186 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>16</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C23" t="s">
         <v>18</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{B9663AFB-2044-554D-9596-9BB4C51A1574}"/>
-    <hyperlink ref="C14" r:id="rId2" xr:uid="{C1B3CABA-FA0A-494B-B349-215554AE9119}"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{B9663AFB-2044-554D-9596-9BB4C51A1574}"/>
+    <hyperlink ref="C17" r:id="rId2" xr:uid="{C1B3CABA-FA0A-494B-B349-215554AE9119}"/>
+    <hyperlink ref="C18" r:id="rId3" xr:uid="{E6FE3873-C3C4-5648-9992-45A5AE2BE02E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/literature/literature_list.xlsx
+++ b/literature/literature_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
@@ -273,6 +273,18 @@
   </si>
   <si>
     <t xml:space="preserve">Title: Experimental results about Platanus pollen deposition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">long distance, birch, Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e. g. that some birch pollen sources in Germany or Poland for measurements in Copenhagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI: 10.1111/j.1365-2222.2007.02771.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title: The long-range transport of birch (Betula) pollen from Poland and Germany causes significant pre-season concentrations in Denmark</t>
   </si>
   <si>
     <t xml:space="preserve">index </t>
@@ -409,7 +421,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -462,12 +474,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <i val="true"/>
@@ -545,7 +551,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -571,10 +577,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -656,13 +658,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="92.33"/>
@@ -794,102 +796,116 @@
       <c r="B15" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="B16" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="0" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>48</v>
-      </c>
+      <c r="A23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B24" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>55</v>
+      <c r="D26" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" display="https://doi.org/10.1289/EHP173"/>
-    <hyperlink ref="C18" r:id="rId2" display="www.pollenlibrary.com"/>
+    <hyperlink ref="C19" r:id="rId2" display="www.pollenlibrary.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
